--- a/Experiments/Measurements/Single Banner Vertical/S path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/S path/Transformed_Coordinates.xlsx
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>170.9855097359612</v>
+        <v>170.9855097359615</v>
       </c>
       <c r="H2" t="n">
-        <v>65.20711064987333</v>
+        <v>65.20711064987334</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>151.1673829822011</v>
+        <v>151.1673829822013</v>
       </c>
       <c r="H3" t="n">
-        <v>66.98102700986175</v>
+        <v>66.98102700986186</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>131.1725421900152</v>
+        <v>131.1725421900154</v>
       </c>
       <c r="H4" t="n">
-        <v>68.94241242038629</v>
+        <v>68.94241242038639</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         <v>111.2797190149932</v>
       </c>
       <c r="H5" t="n">
-        <v>70.81265446120547</v>
+        <v>70.81265446120537</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         <v>110.404855966982</v>
       </c>
       <c r="H6" t="n">
-        <v>72.10752193106839</v>
+        <v>72.10752193106829</v>
       </c>
     </row>
     <row r="7">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>160.0352489660982</v>
+        <v>160.0352489660985</v>
       </c>
       <c r="H7" t="n">
-        <v>70.34538602811011</v>
+        <v>70.3453860281101</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>171.0180964092122</v>
+        <v>171.0180964092124</v>
       </c>
       <c r="H8" t="n">
         <v>65.23616293101897</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>151.020008999688</v>
+        <v>151.0200089996882</v>
       </c>
       <c r="H9" t="n">
-        <v>67.14779067352474</v>
+        <v>67.14779067352484</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>131.1868662277572</v>
+        <v>131.1868662277574</v>
       </c>
       <c r="H10" t="n">
-        <v>68.9480489881287</v>
+        <v>68.9480489881288</v>
       </c>
     </row>
     <row r="11">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>111.2908425175012</v>
+        <v>111.2908425175013</v>
       </c>
       <c r="H11" t="n">
-        <v>70.79073446779911</v>
+        <v>70.790734467799</v>
       </c>
     </row>
     <row r="12">
@@ -802,7 +802,7 @@
         <v>111.3104647779674</v>
       </c>
       <c r="H12" t="n">
-        <v>70.78508187504129</v>
+        <v>70.78508187504119</v>
       </c>
     </row>
     <row r="13">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>170.8985168936294</v>
+        <v>170.8985168936296</v>
       </c>
       <c r="H13" t="n">
         <v>65.27188341516852</v>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>171.0096743313867</v>
+        <v>171.0096743313869</v>
       </c>
       <c r="H14" t="n">
         <v>65.15343356526967</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>115.2720752280126</v>
+        <v>115.2720752280128</v>
       </c>
       <c r="H15" t="n">
-        <v>84.82398239361741</v>
+        <v>84.82398239361756</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>95.41748153512361</v>
+        <v>95.4174815351238</v>
       </c>
       <c r="H16" t="n">
-        <v>83.56177881026549</v>
+        <v>83.56177881026562</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>75.30688393915989</v>
+        <v>75.30688393915996</v>
       </c>
       <c r="H17" t="n">
-        <v>82.5507283526161</v>
+        <v>82.55072835261601</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>73.74332818781947</v>
+        <v>73.74332818781954</v>
       </c>
       <c r="H18" t="n">
-        <v>83.95698408979401</v>
+        <v>83.95698408979392</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>170.885359604447</v>
+        <v>170.8853596044472</v>
       </c>
       <c r="H19" t="n">
-        <v>65.26368089772335</v>
+        <v>65.26368089772336</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>124.3775743402972</v>
+        <v>124.3775743402974</v>
       </c>
       <c r="H20" t="n">
-        <v>78.80386965235397</v>
+        <v>78.80386965235401</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>115.4925876529504</v>
+        <v>115.4925876529506</v>
       </c>
       <c r="H21" t="n">
-        <v>84.68399814775636</v>
+        <v>84.6839981477565</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>95.2237554624766</v>
+        <v>95.22375546247679</v>
       </c>
       <c r="H22" t="n">
-        <v>83.89291934916052</v>
+        <v>83.89291934916065</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>75.44711942800298</v>
+        <v>75.44711942800305</v>
       </c>
       <c r="H23" t="n">
-        <v>82.56502867529355</v>
+        <v>82.56502867529346</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>123.4424982391163</v>
+        <v>123.4424982391159</v>
       </c>
       <c r="H24" t="n">
-        <v>74.18691545814362</v>
+        <v>74.18691545814337</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>137.4166625471611</v>
+        <v>137.4166625471613</v>
       </c>
       <c r="H25" t="n">
-        <v>75.84829597783144</v>
+        <v>75.84829597783153</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>157.8507935064481</v>
+        <v>157.8507935064483</v>
       </c>
       <c r="H26" t="n">
-        <v>67.2809906773066</v>
+        <v>67.2809906773067</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>141.1080427144518</v>
+        <v>141.108042714452</v>
       </c>
       <c r="H29" t="n">
-        <v>68.01373200865251</v>
+        <v>68.01373200865261</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>141.0667322279466</v>
+        <v>141.0667322279468</v>
       </c>
       <c r="H30" t="n">
-        <v>68.07434899112911</v>
+        <v>68.07434899112921</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>161.0421105954494</v>
+        <v>161.0421105954496</v>
       </c>
       <c r="H31" t="n">
-        <v>66.17559993550501</v>
+        <v>66.1755999355051</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>126.2266203635857</v>
+        <v>126.2266203635853</v>
       </c>
       <c r="H33" t="n">
-        <v>69.41618583113809</v>
+        <v>69.41618583113788</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>126.1743446003087</v>
+        <v>126.1743446003083</v>
       </c>
       <c r="H34" t="n">
-        <v>69.41909190400494</v>
+        <v>69.41909190400473</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>157.6682233736006</v>
+        <v>157.6682233736008</v>
       </c>
       <c r="H36" t="n">
-        <v>67.36744054803968</v>
+        <v>67.3674405480398</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>126.1748881365004</v>
+        <v>126.1748881365</v>
       </c>
       <c r="H37" t="n">
-        <v>69.47462898396294</v>
+        <v>69.47462898396273</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>141.118764353803</v>
+        <v>141.1187643538032</v>
       </c>
       <c r="H39" t="n">
-        <v>68.06420156626183</v>
+        <v>68.06420156626193</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>100.1258830755835</v>
+        <v>100.1258830755834</v>
       </c>
       <c r="H40" t="n">
-        <v>83.98642894875616</v>
+        <v>83.98642894875593</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>141.0862779633949</v>
+        <v>141.0862779633951</v>
       </c>
       <c r="H42" t="n">
-        <v>68.07794703585714</v>
+        <v>68.07794703585724</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>90.27052050474769</v>
+        <v>90.27052050474732</v>
       </c>
       <c r="H44" t="n">
-        <v>83.34131418241779</v>
+        <v>83.34131418241752</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>141.1691067522907</v>
+        <v>141.1691067522909</v>
       </c>
       <c r="H47" t="n">
-        <v>67.98461902350068</v>
+        <v>67.9846190235008</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>160.9417941016968</v>
+        <v>160.941794101697</v>
       </c>
       <c r="H49" t="n">
-        <v>66.16982688078492</v>
+        <v>66.16982688078504</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>87.86778024292471</v>
+        <v>87.86778024292435</v>
       </c>
       <c r="H50" t="n">
-        <v>86.0478373328764</v>
+        <v>86.04783733287611</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>104.6881894721909</v>
+        <v>104.6881894721911</v>
       </c>
       <c r="H51" t="n">
-        <v>77.29762357047289</v>
+        <v>77.29762357047302</v>
       </c>
     </row>
   </sheetData>
